--- a/Bubble Tiempos.xlsx
+++ b/Bubble Tiempos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nxqui\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26FFD433-2B14-495C-98CB-E6216D132CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0560D45-3770-4648-A793-9A7979F4B9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tiempos" sheetId="1" r:id="rId1"/>
@@ -156,18 +156,15 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Función (ms)</c:v>
-          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tiempos!$A$2:$A$5</c:f>
+              <c:f>Tiempos!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -179,27 +176,33 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tiempos!$B$2:$B$5</c:f>
+              <c:f>Tiempos!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>657</c:v>
+                  <c:v>556</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16173</c:v>
+                  <c:v>13769</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -214,18 +217,15 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Funtor (ms)</c:v>
-          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tiempos!$A$2:$A$5</c:f>
+              <c:f>Tiempos!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -237,16 +237,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tiempos!$C$2:$C$5</c:f>
+              <c:f>Tiempos!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -254,10 +257,13 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>622</c:v>
+                  <c:v>544</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16392</c:v>
+                  <c:v>13982</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -272,18 +278,15 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:v>Polimorfismo (ms)</c:v>
-          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tiempos!$A$2:$A$5</c:f>
+              <c:f>Tiempos!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -295,27 +298,33 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tiempos!$D$2:$D$5</c:f>
+              <c:f>Tiempos!$D$2:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>617</c:v>
+                  <c:v>573</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21056</c:v>
+                  <c:v>15149</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76366</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -330,18 +339,15 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
-          <c:tx>
-            <c:v>Function Object (ms)</c:v>
-          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tiempos!$A$2:$A$5</c:f>
+              <c:f>Tiempos!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -353,27 +359,33 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tiempos!$E$2:$E$5</c:f>
+              <c:f>Tiempos!$E$2:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>618</c:v>
+                  <c:v>538</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18601</c:v>
+                  <c:v>14114</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87760</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -524,23 +536,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>21480</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>579782</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>168817</xdr:rowOff>
+      <xdr:rowOff>168991</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>526593</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>25250</xdr:rowOff>
+      <xdr:colOff>446898</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>91108</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2593F7F-B0C7-630D-CB2B-D1C0504B8598}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3EAA6C8-DC77-09A3-D339-F7C903DBDABA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -556,8 +568,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8601364" y="168817"/>
-          <a:ext cx="2956508" cy="2809921"/>
+          <a:off x="10204173" y="168991"/>
+          <a:ext cx="2766029" cy="3541617"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -856,22 +868,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" customWidth="1"/>
-    <col min="3" max="3" width="11.08984375" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -888,7 +900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>100</v>
       </c>
@@ -905,55 +917,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1000</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>6</v>
       </c>
       <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
         <v>5</v>
       </c>
-      <c r="E3">
-        <v>6</v>
-      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10000</v>
       </c>
       <c r="B4">
-        <v>657</v>
+        <v>556</v>
       </c>
       <c r="C4">
-        <v>622</v>
+        <v>544</v>
       </c>
       <c r="D4">
-        <v>617</v>
+        <v>573</v>
       </c>
       <c r="E4">
-        <v>618</v>
+        <v>538</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>50000</v>
       </c>
       <c r="B5">
-        <v>16173</v>
+        <v>13769</v>
       </c>
       <c r="C5">
-        <v>16392</v>
+        <v>13982</v>
       </c>
       <c r="D5">
-        <v>21056</v>
+        <v>15149</v>
       </c>
       <c r="E5">
-        <v>18601</v>
+        <v>14114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>100000</v>
+      </c>
+      <c r="B6">
+        <v>68536</v>
+      </c>
+      <c r="C6">
+        <v>67285</v>
+      </c>
+      <c r="D6">
+        <v>76366</v>
+      </c>
+      <c r="E6">
+        <v>87760</v>
       </c>
     </row>
   </sheetData>

--- a/Bubble Tiempos.xlsx
+++ b/Bubble Tiempos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nxqui\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0560D45-3770-4648-A793-9A7979F4B9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BC419D-00B7-4B84-8081-084854017CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,12 +58,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -93,11 +99,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -149,22 +157,43 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17840525489049944"/>
+          <c:y val="0.1901738845144357"/>
+          <c:w val="0.78668796499427152"/>
+          <c:h val="0.40277741324001165"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tiempos!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Función (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tiempos!$A$2:$A$6</c:f>
+              <c:f>Tiempos!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -172,12 +201,21 @@
                   <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>50000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
@@ -185,10 +223,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tiempos!$B$2:$B$6</c:f>
+              <c:f>Tiempos!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -196,13 +234,22 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>556</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13769</c:v>
+                  <c:v>581</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>68536</c:v>
+                  <c:v>3391</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14074</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31291</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55878</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -217,15 +264,26 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tiempos!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Funtor (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tiempos!$A$2:$A$6</c:f>
+              <c:f>Tiempos!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -233,12 +291,21 @@
                   <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>50000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
@@ -246,10 +313,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tiempos!$C$2:$C$6</c:f>
+              <c:f>Tiempos!$C$2:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -257,13 +324,22 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>544</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13982</c:v>
+                  <c:v>545</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>67285</c:v>
+                  <c:v>3429</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14057</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31428</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -278,15 +354,26 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tiempos!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Polimorfismo (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tiempos!$A$2:$A$6</c:f>
+              <c:f>Tiempos!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -294,12 +381,21 @@
                   <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>50000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
@@ -307,10 +403,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tiempos!$D$2:$D$6</c:f>
+              <c:f>Tiempos!$D$2:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -318,13 +414,22 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>573</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15149</c:v>
+                  <c:v>551</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76366</c:v>
+                  <c:v>3580</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14142</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31555</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -339,15 +444,26 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tiempos!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Function Object (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tiempos!$A$2:$A$6</c:f>
+              <c:f>Tiempos!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -355,12 +471,21 @@
                   <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>50000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
@@ -368,24 +493,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tiempos!$E$2:$E$6</c:f>
+              <c:f>Tiempos!$E$2:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>538</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14114</c:v>
+                  <c:v>563</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>87760</c:v>
+                  <c:v>3489</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14198</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31816</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56619</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -393,7 +527,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-DFB0-40E6-B396-5978F7676EB1}"/>
+              <c16:uniqueId val="{00000000-C2CE-446E-B1A8-8FD63CDB2E2D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -482,6 +616,19 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr baseline="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -501,15 +648,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>-1</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>432955</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>155864</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -536,23 +683,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>579782</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>396154</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>168991</xdr:rowOff>
+      <xdr:rowOff>158027</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>446898</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>91108</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>282157</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>144420</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
+        <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3EAA6C8-DC77-09A3-D339-F7C903DBDABA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F89A8D3-7A22-F938-CE91-E1FF36916A78}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -568,8 +715,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10204173" y="168991"/>
-          <a:ext cx="2766029" cy="3541617"/>
+          <a:off x="14319972" y="158027"/>
+          <a:ext cx="2830094" cy="5510893"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -868,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AF28" sqref="AF28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,109 +1027,160 @@
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.140625" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>100</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>1000</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>6</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>6</v>
       </c>
-      <c r="E3">
-        <v>5</v>
+      <c r="E3" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>10000</v>
-      </c>
-      <c r="B4">
-        <v>556</v>
-      </c>
-      <c r="C4">
-        <v>544</v>
-      </c>
-      <c r="D4">
-        <v>573</v>
-      </c>
-      <c r="E4">
-        <v>538</v>
+      <c r="A4" s="1">
+        <v>5000</v>
+      </c>
+      <c r="B4" s="1">
+        <v>148</v>
+      </c>
+      <c r="C4" s="1">
+        <v>146</v>
+      </c>
+      <c r="D4" s="1">
+        <v>167</v>
+      </c>
+      <c r="E4" s="1">
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>50000</v>
-      </c>
-      <c r="B5">
-        <v>13769</v>
-      </c>
-      <c r="C5">
-        <v>13982</v>
-      </c>
-      <c r="D5">
-        <v>15149</v>
-      </c>
-      <c r="E5">
-        <v>14114</v>
+      <c r="A5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="B5" s="1">
+        <v>581</v>
+      </c>
+      <c r="C5" s="1">
+        <v>545</v>
+      </c>
+      <c r="D5" s="1">
+        <v>551</v>
+      </c>
+      <c r="E5" s="1">
+        <v>563</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
+        <v>25000</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3391</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3429</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3580</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3489</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>50000</v>
+      </c>
+      <c r="B7" s="3">
+        <v>14074</v>
+      </c>
+      <c r="C7" s="3">
+        <v>14057</v>
+      </c>
+      <c r="D7" s="3">
+        <v>14142</v>
+      </c>
+      <c r="E7" s="3">
+        <v>14198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>75000</v>
+      </c>
+      <c r="B8" s="3">
+        <v>31291</v>
+      </c>
+      <c r="C8" s="3">
+        <v>31428</v>
+      </c>
+      <c r="D8" s="3">
+        <v>31555</v>
+      </c>
+      <c r="E8" s="3">
+        <v>31816</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>100000</v>
       </c>
-      <c r="B6">
-        <v>68536</v>
-      </c>
-      <c r="C6">
-        <v>67285</v>
-      </c>
-      <c r="D6">
-        <v>76366</v>
-      </c>
-      <c r="E6">
-        <v>87760</v>
+      <c r="B9" s="3">
+        <v>55878</v>
+      </c>
+      <c r="C9" s="3">
+        <v>56152</v>
+      </c>
+      <c r="D9" s="3">
+        <v>55989</v>
+      </c>
+      <c r="E9" s="3">
+        <v>56619</v>
       </c>
     </row>
   </sheetData>
